--- a/Paper Rebuttal/Adjustments_12_2019/Overlaps/angle_distance_table_partner.xlsx
+++ b/Paper Rebuttal/Adjustments_12_2019/Overlaps/angle_distance_table_partner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
   <si>
     <t>Animal</t>
   </si>
@@ -38,6 +38,9 @@
   <si>
     <t>Number_events</t>
   </si>
+  <si>
+    <t>Theta_deg</t>
+  </si>
 </sst>
 </file>
 
@@ -57,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -73,11 +76,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -87,6 +92,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -102,7 +109,7 @@
     <col min="1" max="1" width="7.42578125" customWidth="true"/>
     <col min="2" max="2" width="6.42578125" customWidth="true"/>
     <col min="3" max="3" width="4.5703125" customWidth="true"/>
-    <col min="4" max="4" width="11.85546875" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="10.85546875" customWidth="true"/>
     <col min="6" max="6" width="15.5703125" customWidth="true"/>
     <col min="7" max="7" width="13.85546875" customWidth="true"/>
@@ -110,130 +117,130 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>109.437</v>
+        <v>77.308199999999999</v>
       </c>
       <c r="E2">
-        <v>70.799999999999997</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F2">
-        <v>3.9424865250245289</v>
+        <v>18.429520252541344</v>
       </c>
       <c r="G2">
-        <v>9.4001914874112842</v>
+        <v>16.803577067594134</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>83.756857142857143</v>
+        <v>118.28066666666666</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>75.299999999999997</v>
       </c>
       <c r="F3">
-        <v>31.56815167221546</v>
+        <v>39.976079097380222</v>
       </c>
       <c r="G3">
-        <v>18.642405960604972</v>
+        <v>45.296414869170398</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>123.97024999999999</v>
+        <v>99.737285714285704</v>
       </c>
       <c r="E4">
-        <v>85.599999999999994</v>
+        <v>62.600000000000001</v>
       </c>
       <c r="F4">
-        <v>11.472221334653405</v>
+        <v>98.84510677857233</v>
       </c>
       <c r="G4">
-        <v>15.398267259243356</v>
+        <v>56.86572804205943</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>124.08425</v>
+        <v>75.971999999999994</v>
       </c>
       <c r="E5">
-        <v>82.5</v>
+        <v>25.100000000000001</v>
       </c>
       <c r="F5">
-        <v>10.269608042926068</v>
+        <v>4.1192909414282424</v>
       </c>
       <c r="G5">
-        <v>14.311673096915984</v>
+        <v>8.53880590695438</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -241,545 +248,545 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>104.76066666666667</v>
+        <v>131.20099999999999</v>
       </c>
       <c r="E6">
-        <v>67.700000000000003</v>
+        <v>87.099999999999994</v>
       </c>
       <c r="F6">
-        <v>23.329540071762676</v>
+        <v>4.6616413418451934</v>
       </c>
       <c r="G6">
-        <v>21.427237785114471</v>
+        <v>9.2626670025430737</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>128.50700000000001</v>
+        <v>137.24033333333333</v>
       </c>
       <c r="E7">
-        <v>96.299999999999997</v>
+        <v>97.399999999999991</v>
       </c>
       <c r="F7">
-        <v>40.527546187747433</v>
+        <v>40.306039653325243</v>
       </c>
       <c r="G7">
-        <v>17.01274816130535</v>
+        <v>17.822703276867003</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8">
-        <v>40.460000000000001</v>
+        <v>92.192833333333326</v>
       </c>
       <c r="E8">
-        <v>19.900000000000002</v>
+        <v>46.300000000000004</v>
       </c>
       <c r="F8">
-        <v>2.1023796041628433</v>
+        <v>15.426975780208434</v>
       </c>
       <c r="G8">
-        <v>45.620790216742179</v>
+        <v>10.637954812478217</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9">
-        <v>125.3655</v>
+        <v>108.60899999999999</v>
       </c>
       <c r="E9">
-        <v>76.5</v>
+        <v>68.200000000000003</v>
       </c>
       <c r="F9">
-        <v>33.415932741151607</v>
+        <v>8.7993692955802381</v>
       </c>
       <c r="G9">
-        <v>22.377547711028019</v>
+        <v>31.170851592473362</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>95.983714285714285</v>
+        <v>139.51899999999998</v>
       </c>
       <c r="E10">
-        <v>49.399999999999999</v>
+        <v>99.799999999999997</v>
       </c>
       <c r="F10">
-        <v>11.15672442968812</v>
+        <v>13.590599692434493</v>
       </c>
       <c r="G10">
-        <v>15.388112294885303</v>
+        <v>20.731965656926977</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>96.026714285714291</v>
+        <v>108.32099999999997</v>
       </c>
       <c r="E11">
-        <v>47.299999999999997</v>
+        <v>78.100000000000009</v>
       </c>
       <c r="F11">
-        <v>10.311260812645024</v>
+        <v>18.434629314106125</v>
       </c>
       <c r="G11">
-        <v>12.924748097778501</v>
+        <v>21.195409577266698</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12">
-        <v>115.47625000000001</v>
+        <v>84.478999999999999</v>
       </c>
       <c r="E12">
-        <v>83.099999999999994</v>
+        <v>18.099999999999998</v>
       </c>
       <c r="F12">
-        <v>12.92203937593948</v>
+        <v>11.445217341754597</v>
       </c>
       <c r="G12">
-        <v>12.315338454402037</v>
+        <v>3.7615156519680042</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>146.67633333333336</v>
+        <v>110.22423076923077</v>
       </c>
       <c r="E13">
-        <v>93.5</v>
+        <v>86.5</v>
       </c>
       <c r="F13">
-        <v>23.144859040400341</v>
+        <v>13.210934864724749</v>
       </c>
       <c r="G13">
-        <v>19.949862154912243</v>
+        <v>23.643161886685135</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14">
-        <v>163.27799999999999</v>
+        <v>97.88344444444445</v>
       </c>
       <c r="E14">
-        <v>97.399999999999991</v>
+        <v>55.900000000000006</v>
       </c>
       <c r="F14">
-        <v>17.376754106633072</v>
+        <v>31.096663808196535</v>
       </c>
       <c r="G14">
-        <v>56.840544108493191</v>
+        <v>12.377079623239112</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15">
-        <v>120.11428571428573</v>
+        <v>112.53861538461538</v>
       </c>
       <c r="E15">
-        <v>86.799999999999997</v>
+        <v>88.700000000000003</v>
       </c>
       <c r="F15">
-        <v>26.844895231682319</v>
+        <v>27.176800105972745</v>
       </c>
       <c r="G15">
-        <v>23.780853643214733</v>
+        <v>56.739690693552383</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16">
-        <v>81.376333333333335</v>
+        <v>117.50330769230769</v>
       </c>
       <c r="E16">
-        <v>33.200000000000003</v>
+        <v>99</v>
       </c>
       <c r="F16">
-        <v>15.592065289755494</v>
+        <v>4.8535097553015341</v>
       </c>
       <c r="G16">
-        <v>17.521078733913626</v>
+        <v>6.9420497952697406</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17">
-        <v>136.53733333333332</v>
+        <v>97.357066666666668</v>
       </c>
       <c r="E17">
-        <v>92.200000000000003</v>
+        <v>57.699999999999996</v>
       </c>
       <c r="F17">
-        <v>114.70067916102329</v>
+        <v>17.43872128339687</v>
       </c>
       <c r="G17">
-        <v>2.0915305400591264</v>
+        <v>5.0768494167150546</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18">
-        <v>110.06400000000001</v>
+        <v>101.88539999999999</v>
       </c>
       <c r="E18">
-        <v>66.799999999999997</v>
+        <v>56.799999999999997</v>
       </c>
       <c r="F18">
-        <v>29.484372131690375</v>
+        <v>10.875501873476916</v>
       </c>
       <c r="G18">
-        <v>12.41045124078892</v>
+        <v>7.1016969802998338</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19">
-        <v>89.8566</v>
+        <v>79.774399999999986</v>
       </c>
       <c r="E19">
-        <v>35.199999999999996</v>
+        <v>25.900000000000002</v>
       </c>
       <c r="F19">
-        <v>5.4939367088789997</v>
+        <v>17.990069482911977</v>
       </c>
       <c r="G19">
-        <v>15.39410929573574</v>
+        <v>24.338844343969996</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20">
-        <v>88.418000000000006</v>
+        <v>86.434133333333335</v>
       </c>
       <c r="E20">
-        <v>42.100000000000001</v>
+        <v>28.699999999999999</v>
       </c>
       <c r="F20">
-        <v>49.003210283909283</v>
+        <v>17.79544042725551</v>
       </c>
       <c r="G20">
-        <v>10.657089176924465</v>
+        <v>17.438294096613927</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21">
-        <v>115.3605</v>
+        <v>112.14576923076925</v>
       </c>
       <c r="E21">
-        <v>66.799999999999997</v>
+        <v>87.599999999999994</v>
       </c>
       <c r="F21">
-        <v>61.076466600172722</v>
+        <v>84.297617997188937</v>
       </c>
       <c r="G21">
-        <v>12.844506576161269</v>
+        <v>54.883703410028687</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22">
-        <v>80.148428571428568</v>
+        <v>110.32283333333334</v>
       </c>
       <c r="E22">
-        <v>23.200000000000003</v>
+        <v>74.700000000000003</v>
       </c>
       <c r="F22">
-        <v>9.2391449820857545</v>
+        <v>43.186422431268824</v>
       </c>
       <c r="G22">
-        <v>17.521078733913626</v>
+        <v>45.839482965586996</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23">
-        <v>65.378818181818176</v>
+        <v>114.08520000000001</v>
       </c>
       <c r="E23">
-        <v>3.5999999999999996</v>
+        <v>78.200000000000003</v>
       </c>
       <c r="F23">
-        <v>8.591763497676121</v>
+        <v>14.567944261288178</v>
       </c>
       <c r="G23">
-        <v>16.588875790721911</v>
+        <v>52.552032310844005</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24">
-        <v>134.54300000000001</v>
+        <v>93.621103448275875</v>
       </c>
       <c r="E24">
-        <v>88.200000000000003</v>
+        <v>46.100000000000001</v>
       </c>
       <c r="F24">
-        <v>37.677920590181209</v>
+        <v>21.938206398883285</v>
       </c>
       <c r="G24">
-        <v>2.4738633753705659</v>
+        <v>24.761102560265755</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25">
-        <v>76.786333333333332</v>
+        <v>91.134700000000009</v>
       </c>
       <c r="E25">
-        <v>28.100000000000001</v>
+        <v>41.600000000000001</v>
       </c>
       <c r="F25">
-        <v>5.7703379450427281</v>
+        <v>28.572590012107749</v>
       </c>
       <c r="G25">
-        <v>9.7312383590168192</v>
+        <v>36.512293820027246</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26">
-        <v>94.155631578947364</v>
+        <v>96.738555555555592</v>
       </c>
       <c r="E26">
-        <v>66.400000000000006</v>
+        <v>60.5</v>
       </c>
       <c r="F26">
-        <v>18.472371260885811</v>
+        <v>19.392605523755698</v>
       </c>
       <c r="G26">
-        <v>10.041120455407336</v>
+        <v>9.8264133843432404</v>
       </c>
       <c r="H26">
         <v>19</v>
@@ -787,452 +794,470 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27">
-        <v>91.061181818181822</v>
+        <v>61.584833333333336</v>
       </c>
       <c r="E27">
-        <v>41.299999999999997</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="F27">
-        <v>12.773679970940247</v>
+        <v>52.591588464155912</v>
       </c>
       <c r="G27">
-        <v>16.699568856710055</v>
+        <v>19.515149269816206</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28">
-        <v>84.307545454545448</v>
+        <v>91.860333333333315</v>
       </c>
       <c r="E28">
-        <v>29.399999999999999</v>
+        <v>42.600000000000001</v>
       </c>
       <c r="F28">
-        <v>21.471679021445908</v>
+        <v>12.955538298108678</v>
       </c>
       <c r="G28">
-        <v>12.380908690399083</v>
+        <v>8.6043422660085973</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29">
-        <v>78.875866666666667</v>
+        <v>107.65733333333333</v>
       </c>
       <c r="E29">
-        <v>27.200000000000003</v>
+        <v>64.299999999999997</v>
       </c>
       <c r="F29">
-        <v>12.380908690399083</v>
+        <v>33.059953115514226</v>
       </c>
       <c r="G29">
-        <v>11.686308228007674</v>
+        <v>2.9093126335957318</v>
       </c>
       <c r="H29">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
+      <c r="D30">
+        <v>84.671714285714259</v>
+      </c>
       <c r="E30">
-        <v>0</v>
+        <v>16.5</v>
+      </c>
+      <c r="F30">
+        <v>9.7654544185101617</v>
+      </c>
+      <c r="G30">
+        <v>20.108965662112016</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31">
-        <v>110.0667</v>
+        <v>83.890114285714276</v>
       </c>
       <c r="E31">
-        <v>78.900000000000006</v>
+        <v>11.5</v>
       </c>
       <c r="F31">
-        <v>19.732869828311458</v>
+        <v>11.900340331267882</v>
       </c>
       <c r="G31">
-        <v>15.335985081873726</v>
+        <v>10.391692884222477</v>
       </c>
       <c r="H31">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32">
-        <v>8.4290000000000003</v>
+        <v>105.60176470588233</v>
       </c>
       <c r="E32">
-        <v>5.6000000000000005</v>
+        <v>78.799999999999997</v>
       </c>
       <c r="F32">
-        <v>17.990211227220215</v>
+        <v>1.0113851887386547</v>
       </c>
       <c r="G32">
-        <v>9.6762389387612426</v>
+        <v>1.3283448347473701</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33">
-        <v>48.531199999999998</v>
+        <v>89.623479999999986</v>
       </c>
       <c r="E33">
-        <v>2.1000000000000001</v>
+        <v>34.599999999999994</v>
       </c>
       <c r="F33">
-        <v>3.1643640751342224</v>
+        <v>6.108723270864326</v>
       </c>
       <c r="G33">
-        <v>4.9714786532781448</v>
+        <v>5.078592324650602</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34">
-        <v>49.923500000000004</v>
+        <v>79.779378378378382</v>
       </c>
       <c r="E34">
-        <v>11.600000000000001</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="F34">
-        <v>1.4168884787748559</v>
+        <v>11.210791631281012</v>
       </c>
       <c r="G34">
-        <v>2.1665892382791889</v>
+        <v>12.904855675287482</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35">
-        <v>152.19833333333332</v>
+        <v>112.2394</v>
       </c>
       <c r="E35">
-        <v>97.099999999999994</v>
+        <v>97.599999999999994</v>
       </c>
       <c r="F35">
-        <v>7.4202425836356856</v>
+        <v>19.580575718926319</v>
       </c>
       <c r="G35">
-        <v>2.3303433223454282</v>
+        <v>10.514914928599794</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36">
-        <v>143.06100000000001</v>
+        <v>112.38823529411765</v>
       </c>
       <c r="E36">
-        <v>93.899999999999991</v>
+        <v>90.700000000000003</v>
       </c>
       <c r="F36">
-        <v>18.370424600427722</v>
+        <v>27.895899340225633</v>
       </c>
       <c r="G36">
-        <v>30.826332899000487</v>
+        <v>15.529623820299072</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37">
-        <v>95.142833333333328</v>
+        <v>71.828000000000003</v>
       </c>
       <c r="E37">
-        <v>52.100000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F37">
-        <v>45.163694415512197</v>
+        <v>2.3627949551325882</v>
       </c>
       <c r="G37">
-        <v>11.207350232715347</v>
+        <v>7.2870759567881516</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38">
-        <v>81.485199999999992</v>
+        <v>84.389733333333325</v>
       </c>
       <c r="E38">
-        <v>26.5</v>
+        <v>23.899999999999999</v>
       </c>
       <c r="F38">
-        <v>33.483137547129601</v>
+        <v>38.524633015773169</v>
       </c>
       <c r="G38">
-        <v>10.041120455407336</v>
+        <v>27.312050453966286</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39">
-        <v>108.17066666666668</v>
+        <v>100.6956666666667</v>
       </c>
       <c r="E39">
-        <v>89.799999999999997</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="F39">
-        <v>27.134100316760076</v>
+        <v>6.1522211436195846</v>
       </c>
       <c r="G39">
-        <v>17.986898009384504</v>
+        <v>9.7004793695981917</v>
       </c>
       <c r="H39">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
+      <c r="D40">
+        <v>99.219238095238083</v>
+      </c>
       <c r="E40">
-        <v>0</v>
+        <v>74.299999999999997</v>
+      </c>
+      <c r="F40">
+        <v>8.6216849308515222</v>
+      </c>
+      <c r="G40">
+        <v>11.759284837848295</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41">
-        <v>93.625166666666658</v>
+        <v>95.490416666666675</v>
       </c>
       <c r="E41">
-        <v>44.299999999999997</v>
+        <v>53.5</v>
       </c>
       <c r="F41">
-        <v>8.4418142886813285</v>
+        <v>45.296414869170398</v>
       </c>
       <c r="G41">
-        <v>3.4929662174734939</v>
+        <v>38.717029844759537</v>
       </c>
       <c r="H41">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42">
-        <v>140.07919999999999</v>
+        <v>106.30549999999999</v>
       </c>
       <c r="E42">
-        <v>99.5</v>
+        <v>79.299999999999997</v>
       </c>
       <c r="F42">
-        <v>24.022859462571951</v>
+        <v>14.748759785136915</v>
       </c>
       <c r="G42">
-        <v>23.650545453740222</v>
+        <v>22.746534108596364</v>
       </c>
       <c r="H42">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43">
-        <v>67.262799999999999</v>
+        <v>109.18115384615383</v>
       </c>
       <c r="E43">
-        <v>12.199999999999999</v>
+        <v>92.200000000000003</v>
       </c>
       <c r="F43">
-        <v>11.15672442968812</v>
+        <v>38.104377288187891</v>
       </c>
       <c r="G43">
-        <v>8.591763497676121</v>
+        <v>32.333934874680381</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44">
-        <v>79.282499999999999</v>
+        <v>111.43499999999999</v>
       </c>
       <c r="E44">
-        <v>35.5</v>
+        <v>85.700000000000003</v>
       </c>
       <c r="F44">
-        <v>9.883362598540641</v>
+        <v>6.8263904265040605</v>
       </c>
       <c r="G44">
-        <v>15.77838102819541</v>
+        <v>5.0350023658719518</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
